--- a/linear regression/salary dataset two variabels/Salary_dataset.xlsx
+++ b/linear regression/salary dataset two variabels/Salary_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/octavian/Documents/Unhas/synthetic_dataset/linear regression/salary dataset two variabels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF6A90D-8FE5-3E45-AA17-5A9BBBB2FB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B6CBA-58E6-6145-94B1-4AE439C198BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -127,21 +127,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -167,28 +152,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -198,25 +168,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1349,299 +1310,267 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1.2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>39344</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
         <v>1.4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>46206</v>
       </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>1.6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>37732</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>2.1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>43526</v>
       </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>39892</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>56643</v>
       </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>3.1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>60151</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>3.3</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>54446</v>
       </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>3.5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>64446</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
         <v>3.8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>57190</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>63219</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>55795</v>
       </c>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>56958</v>
       </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>4.2</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>57082</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>61112</v>
       </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>67939</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>5.2</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>66030</v>
       </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>5.4</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>83089</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>81364</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
         <v>6.1</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>93941</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>6.9</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>91739</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
         <v>7.2</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>98274</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>101303</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>113813</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>109432</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
         <v>9.1</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>105583</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
         <v>9.6</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>116970</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>112636</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
         <v>10.4</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>122392</v>
       </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+    </row>
+    <row r="31" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
         <v>10.6</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>121873</v>
       </c>
-      <c r="C31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
